--- a/بدل بدون الارقام الوطنية.xlsx
+++ b/بدل بدون الارقام الوطنية.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\بدل مواصللات\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66CB1B00-E757-430F-9B03-970998EA1891}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342988E1-3F92-45C5-AB9D-22DF3B3C36CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="1020" windowWidth="15375" windowHeight="8325" xr2:uid="{1F587041-2C1C-4518-A809-7B4FA2B65BE2}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="8325" xr2:uid="{1F587041-2C1C-4518-A809-7B4FA2B65BE2}"/>
   </bookViews>
   <sheets>
     <sheet name="بدل بدون الارقام الوطنية" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="133">
   <si>
     <t>احمد عمر حمدان</t>
   </si>
@@ -419,6 +419,12 @@
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>يبلاتنم</t>
+  </si>
+  <si>
+    <t>عمود1</t>
   </si>
 </sst>
 </file>
@@ -661,9 +667,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{97B2C316-FFFE-4908-B0CC-4F09D5F11B82}" name="الجدول2" displayName="الجدول2" ref="A1:H122" totalsRowShown="0">
-  <autoFilter ref="A1:H122" xr:uid="{78E16535-37D8-4C43-8948-AF953C3CE6C1}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{97B2C316-FFFE-4908-B0CC-4F09D5F11B82}" name="الجدول2" displayName="الجدول2" ref="A1:I122" totalsRowShown="0">
+  <autoFilter ref="A1:I122" xr:uid="{78E16535-37D8-4C43-8948-AF953C3CE6C1}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{4A206C68-1D12-43A4-BA65-3EC5898E2D3B}" name="#" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{DD9AD099-1478-4334-B9B0-4F38ED304055}" name="full Name" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{E7CD34E4-A51A-4A2E-855D-657D0CC148C0}" name="M / F" dataDxfId="5"/>
@@ -672,6 +678,7 @@
     <tableColumn id="6" xr3:uid="{7B74226A-520C-4175-B08C-5A91C7221F0D}" name="ID number " dataDxfId="2"/>
     <tableColumn id="7" xr3:uid="{A21E24CD-4B91-4B95-A6A1-B52CB019DCB9}" name="daily allowance" dataDxfId="1"/>
     <tableColumn id="8" xr3:uid="{5F970983-A17B-42FB-B2FF-2FB6FDC77E5C}" name="Total allowance" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{E93A1D98-20B5-44AF-87EF-4179E3E4D5FA}" name="عمود1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -974,15 +981,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2B84EC-7F5F-4469-96FD-70E15C01FF9F}">
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>130</v>
       </c>
@@ -1007,8 +1014,11 @@
       <c r="H1" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1032,7 +1042,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1058,7 +1068,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1083,8 +1093,11 @@
       <c r="H4" s="1">
         <v>800</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1110,7 +1123,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1134,7 +1147,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1160,7 +1173,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1186,7 +1199,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1212,7 +1225,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1238,7 +1251,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1262,7 +1275,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1288,7 +1301,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1314,7 +1327,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1340,7 +1353,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1366,7 +1379,7 @@
         <v>17600</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
